--- a/SpotifyClone-NormalizedTable.xlsx
+++ b/SpotifyClone-NormalizedTable.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="121">
   <si>
     <t xml:space="preserve">usuario_id</t>
   </si>
@@ -318,7 +318,7 @@
     <t xml:space="preserve">nome__usuario</t>
   </si>
   <si>
-    <t xml:space="preserve">idade_usuario</t>
+    <t xml:space="preserve">idade__usuario</t>
   </si>
   <si>
     <t xml:space="preserve">Ada LovelaceAda Lovelace</t>
@@ -808,8 +808,8 @@
   </sheetPr>
   <dimension ref="A1:AB1000"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="F40" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="N74" activeCellId="0" sqref="N74"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="E16" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="M35" activeCellId="0" sqref="M35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.4453125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2069,7 +2069,7 @@
       </c>
       <c r="I29" s="40"/>
       <c r="J29" s="40"/>
-      <c r="K29" s="15"/>
+      <c r="K29" s="40"/>
       <c r="L29" s="15"/>
       <c r="M29" s="15"/>
       <c r="N29" s="15"/>
@@ -2105,7 +2105,9 @@
       <c r="J30" s="32" t="s">
         <v>98</v>
       </c>
-      <c r="K30" s="15"/>
+      <c r="K30" s="32" t="s">
+        <v>72</v>
+      </c>
       <c r="L30" s="15"/>
       <c r="M30" s="15"/>
       <c r="N30" s="15"/>
@@ -2141,7 +2143,9 @@
       <c r="J31" s="32" t="n">
         <v>82</v>
       </c>
-      <c r="K31" s="15"/>
+      <c r="K31" s="32" t="n">
+        <v>1</v>
+      </c>
       <c r="L31" s="15"/>
       <c r="M31" s="15"/>
       <c r="N31" s="15"/>
@@ -2177,7 +2181,9 @@
       <c r="J32" s="32" t="n">
         <v>58</v>
       </c>
-      <c r="K32" s="15"/>
+      <c r="K32" s="32" t="n">
+        <v>1</v>
+      </c>
       <c r="L32" s="15"/>
       <c r="M32" s="15"/>
       <c r="N32" s="15"/>
@@ -2213,7 +2219,9 @@
       <c r="J33" s="32" t="n">
         <v>37</v>
       </c>
-      <c r="K33" s="15"/>
+      <c r="K33" s="32" t="n">
+        <v>2</v>
+      </c>
       <c r="L33" s="15"/>
       <c r="M33" s="15"/>
       <c r="N33" s="15"/>
@@ -2249,7 +2257,9 @@
       <c r="J34" s="32" t="n">
         <v>46</v>
       </c>
-      <c r="K34" s="15"/>
+      <c r="K34" s="32" t="n">
+        <v>2</v>
+      </c>
       <c r="L34" s="15"/>
       <c r="M34" s="15"/>
       <c r="N34" s="15"/>
@@ -2285,7 +2295,9 @@
       <c r="J35" s="32" t="n">
         <v>58</v>
       </c>
-      <c r="K35" s="15"/>
+      <c r="K35" s="32" t="n">
+        <v>2</v>
+      </c>
       <c r="L35" s="15"/>
       <c r="M35" s="15"/>
       <c r="N35" s="15"/>
@@ -2321,7 +2333,9 @@
       <c r="J36" s="32" t="n">
         <v>19</v>
       </c>
-      <c r="K36" s="15"/>
+      <c r="K36" s="32" t="n">
+        <v>3</v>
+      </c>
       <c r="L36" s="15"/>
       <c r="M36" s="15"/>
       <c r="N36" s="15"/>
@@ -2357,7 +2371,9 @@
       <c r="J37" s="32" t="n">
         <v>26</v>
       </c>
-      <c r="K37" s="15"/>
+      <c r="K37" s="32" t="n">
+        <v>3</v>
+      </c>
       <c r="L37" s="15"/>
       <c r="M37" s="15"/>
       <c r="N37" s="15"/>
@@ -2393,7 +2409,9 @@
       <c r="J38" s="32" t="n">
         <v>85</v>
       </c>
-      <c r="K38" s="15"/>
+      <c r="K38" s="32" t="n">
+        <v>4</v>
+      </c>
       <c r="L38" s="15"/>
       <c r="M38" s="15"/>
       <c r="N38" s="15"/>
@@ -2429,7 +2447,9 @@
       <c r="J39" s="32" t="n">
         <v>45</v>
       </c>
-      <c r="K39" s="15"/>
+      <c r="K39" s="32" t="n">
+        <v>4</v>
+      </c>
       <c r="L39" s="15"/>
       <c r="M39" s="15"/>
       <c r="N39" s="15"/>
@@ -2465,7 +2485,9 @@
       <c r="J40" s="32" t="n">
         <v>58</v>
       </c>
-      <c r="K40" s="15"/>
+      <c r="K40" s="32" t="n">
+        <v>4</v>
+      </c>
       <c r="L40" s="15"/>
       <c r="M40" s="15"/>
       <c r="N40" s="15"/>
@@ -31609,7 +31631,7 @@
     <mergeCell ref="H13:J13"/>
     <mergeCell ref="H20:I20"/>
     <mergeCell ref="D26:E26"/>
-    <mergeCell ref="H29:J29"/>
+    <mergeCell ref="H29:K29"/>
     <mergeCell ref="H42:I42"/>
     <mergeCell ref="H60:J60"/>
     <mergeCell ref="H79:K79"/>
